--- a/test.xlsx
+++ b/test.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="测试" sheetId="1" r:id="rId1"/>
+    <sheet name="测试1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -354,17 +354,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1">
-        <v>123</v>
+        <v>11123</v>
+      </c>
+      <c r="B1">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
